--- a/results/ElasticNet_tpesearch-estimator_df.xlsx
+++ b/results/ElasticNet_tpesearch-estimator_df.xlsx
@@ -509,7 +509,7 @@
                 ('selector', None),
                 ('model',
                  LogisticRegression(class_weight='balanced',
-                                    l1_ratio=0.9405079045484755, max_iter=1000,
+                                    l1_ratio=0.7830765826716157, max_iter=1000,
                                     penalty='elasticnet', random_state=42,
                                     solver='saga'))])</t>
         </is>
@@ -526,11 +526,11 @@
                                   'Delta_OffAxis', 'Delta_OnAxis', 'Delta_PV',
                                   'Delta_RT', 'FullPath_HR', 'FullPath_V',
                                   'MT_HR', 'MT_V', 'PeakV_HR', 'PeakV_V',
-                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__l1_ratio': 0.9405079045484755, 'model__penalty': 'elasticnet', 'model__solver': 'saga'}</t>
+                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__l1_ratio': 0.7830765826716157, 'model__penalty': 'elasticnet', 'model__solver': 'saga'}</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.5576358883634426</v>
+        <v>0.570452602093469</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -541,10 +541,10 @@
         <v>42</v>
       </c>
       <c r="G2" t="n">
-        <v>0.722779434354387</v>
+        <v>0.7333838957458397</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5034965034965034</v>
+        <v>0.5440917107583775</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -553,7 +553,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>[1 1 1 1 0 0 1 0 0 1 1 0 0 1 1 0 1 0 0 0 1 0 0 1]</t>
+          <t>[0 1 1 1 0 0 1 0 0 1 1 1 1 1 1 0 1 0 0 0 1 0 0 1]</t>
         </is>
       </c>
     </row>
@@ -562,84 +562,6 @@
         <v>0</v>
       </c>
       <c r="B3" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler',
-                 ColumnTransformer(n_jobs=-1, remainder='passthrough',
-                                   transformers=[('StandardScaler',
-                                                  StandardScaler(),
-                                                  ['AE_HR', 'AE_V',
-                                                   'AbsOffAxis_HR',
-                                                   'AbsOffAxis_V',
-                                                   'AbsOnAxis_HR',
-                                                   'AbsOnAxis_V', 'BallPath_HR',
-                                                   'BallPath_V', 'CMT_HR',
-                                                   'CMT_V', 'Corrective_HR',
-                                                   'Corrective_V', 'Delta_AE',
-                                                   'Delta_Fullpath', 'Delta_MT',
-                                                   'Delta_OffAxis',
-                                                   'Delta_OnAxis', 'Delta_PV',
-                                                   'Delta_RT', 'FullPath_HR',
-                                                   'FullPath_V', 'MT_HR',
-                                                   'MT_V', 'PeakV_HR',
-                                                   'PeakV_V', 'RT_HR', 'RT_V',
-                                                   'TMT_HR', 'TMT_V', 'VE_HR', ...])])),
-                ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f3a8c653fd0&gt;),
-                ('model',
-                 LogisticRegression(class_weight='balanced',
-                                    l1_ratio=0.5222779866254247, max_iter=1000,
-                                    penalty='elasticnet', random_state=42,
-                                    solver='saga'))])</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f3a845a22b0&gt;, 'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
-                  transformers=[('StandardScaler', StandardScaler(),
-                                 ['AE_HR', 'AE_V', 'AbsOffAxis_HR',
-                                  'AbsOffAxis_V', 'AbsOnAxis_HR', 'AbsOnAxis_V',
-                                  'BallPath_HR', 'BallPath_V', 'CMT_HR',
-                                  'CMT_V', 'Corrective_HR', 'Corrective_V',
-                                  'Delta_AE', 'Delta_Fullpath', 'Delta_MT',
-                                  'Delta_OffAxis', 'Delta_OnAxis', 'Delta_PV',
-                                  'Delta_RT', 'FullPath_HR', 'FullPath_V',
-                                  'MT_HR', 'MT_V', 'PeakV_HR', 'PeakV_V',
-                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__l1_ratio': 0.5222779866254247, 'model__penalty': 'elasticnet', 'model__solver': 'saga'}</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0.5385065284695113</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Tree-Parzen Estimator</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>69</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.6374807987711214</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.6215970961887477</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>[0 1 1 0 1 0 0 0 1 1 1 0 1 0 1 0 1 0 1 1 0 1 1 1]</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 0 1 0 1 1 1 0 0 1 0 1 0 1 1 1 0 0 0 1 1]</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="inlineStr">
         <is>
           <t>Pipeline(steps=[('scaler',
                  ColumnTransformer(n_jobs=-1, remainder='passthrough',
@@ -664,12 +586,12 @@
                 ('selector', None),
                 ('model',
                  LogisticRegression(class_weight='balanced',
-                                    l1_ratio=0.34415374598165616, max_iter=1000,
+                                    l1_ratio=0.8546943368620347, max_iter=1000,
                                     penalty='elasticnet', random_state=42,
                                     solver='saga'))])</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>{'selector': None, 'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
                   transformers=[('StandardScaler', StandardScaler(),
@@ -681,42 +603,42 @@
                                   'Delta_OffAxis', 'Delta_OnAxis', 'Delta_PV',
                                   'Delta_RT', 'FullPath_HR', 'FullPath_V',
                                   'MT_HR', 'MT_V', 'PeakV_HR', 'PeakV_V',
-                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__l1_ratio': 0.34415374598165616, 'model__penalty': 'elasticnet', 'model__solver': 'saga'}</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0.4847212296609927</v>
-      </c>
-      <c r="E4" t="inlineStr">
+                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__l1_ratio': 0.8546943368620347, 'model__penalty': 'elasticnet', 'model__solver': 'saga'}</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5492912212000919</v>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>Tree-Parzen Estimator</t>
         </is>
       </c>
-      <c r="F4" t="n">
-        <v>23</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.6785681463100818</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.6215970961887477</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>[0 0 1 0 0 1 0 1 1 1 1 1 1 1 1 0 0 0 1 0 1 1 1 0]</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>[0 0 1 1 1 1 1 1 1 1 1 0 0 1 1 1 0 1 0 0 1 0 1 0]</t>
+      <c r="F3" t="n">
+        <v>69</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.7439326998729044</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.5440917107583775</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>[0 1 1 0 1 0 0 0 1 1 1 0 1 0 1 0 1 0 1 1 0 1 1 1]</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 0 1 0 0 1 0 0 1 1 1 0 0 1 0 1 0 0 0 1 1]</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>Pipeline(steps=[('scaler',
                  ColumnTransformer(n_jobs=-1, remainder='passthrough',
@@ -741,12 +663,12 @@
                 ('selector', None),
                 ('model',
                  LogisticRegression(class_weight='balanced',
-                                    l1_ratio=0.9841960543906002, max_iter=1000,
+                                    l1_ratio=0.2732617604953749, max_iter=1000,
                                     penalty='elasticnet', random_state=42,
                                     solver='saga'))])</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>{'selector': None, 'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
                   transformers=[('StandardScaler', StandardScaler(),
@@ -758,42 +680,42 @@
                                   'Delta_OffAxis', 'Delta_OnAxis', 'Delta_PV',
                                   'Delta_RT', 'FullPath_HR', 'FullPath_V',
                                   'MT_HR', 'MT_V', 'PeakV_HR', 'PeakV_V',
-                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__l1_ratio': 0.9841960543906002, 'model__penalty': 'elasticnet', 'model__solver': 'saga'}</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>0.5359689825586985</v>
-      </c>
-      <c r="E5" t="inlineStr">
+                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__l1_ratio': 0.2732617604953749, 'model__penalty': 'elasticnet', 'model__solver': 'saga'}</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4826469469642844</v>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>Tree-Parzen Estimator</t>
         </is>
       </c>
-      <c r="F5" t="n">
-        <v>99</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.6897214070464263</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.5034965034965034</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>[0 0 1 1 0 1 1 1 1 0 1 1 0 1 1 0 0 1 0 1 1 0 0 1]</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>[0 0 1 0 1 1 1 1 0 1 0 1 1 0 1 0 0 0 1 0 1 1 0 0]</t>
+      <c r="F4" t="n">
+        <v>23</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.6903718875045041</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>[0 0 1 0 0 1 0 1 1 1 1 1 1 1 1 0 0 0 1 0 1 1 1 0]</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>[0 0 1 0 1 1 1 1 1 1 1 0 1 1 1 1 0 1 0 0 1 0 0 0]</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>Pipeline(steps=[('scaler',
                  ColumnTransformer(n_jobs=-1, remainder='passthrough',
@@ -818,12 +740,12 @@
                 ('selector', None),
                 ('model',
                  LogisticRegression(class_weight='balanced',
-                                    l1_ratio=0.3479301261296958, max_iter=1000,
+                                    l1_ratio=0.4816613170749568, max_iter=1000,
                                     penalty='elasticnet', random_state=42,
                                     solver='saga'))])</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>{'selector': None, 'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
                   transformers=[('StandardScaler', StandardScaler(),
@@ -835,11 +757,88 @@
                                   'Delta_OffAxis', 'Delta_OnAxis', 'Delta_PV',
                                   'Delta_RT', 'FullPath_HR', 'FullPath_V',
                                   'MT_HR', 'MT_V', 'PeakV_HR', 'PeakV_V',
-                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__l1_ratio': 0.3479301261296958, 'model__penalty': 'elasticnet', 'model__solver': 'saga'}</t>
+                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__l1_ratio': 0.4816613170749568, 'model__penalty': 'elasticnet', 'model__solver': 'saga'}</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5457854354556468</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Tree-Parzen Estimator</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>99</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.6793974437005478</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.4611594202898551</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>[0 0 1 1 0 1 1 1 1 0 1 1 0 1 1 0 0 1 0 1 1 0 0 1]</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>[0 0 1 0 1 0 1 1 0 1 0 1 1 0 1 0 0 0 1 0 1 1 0 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler',
+                 ColumnTransformer(n_jobs=-1, remainder='passthrough',
+                                   transformers=[('StandardScaler',
+                                                  StandardScaler(),
+                                                  ['AE_HR', 'AE_V',
+                                                   'AbsOffAxis_HR',
+                                                   'AbsOffAxis_V',
+                                                   'AbsOnAxis_HR',
+                                                   'AbsOnAxis_V', 'BallPath_HR',
+                                                   'BallPath_V', 'CMT_HR',
+                                                   'CMT_V', 'Corrective_HR',
+                                                   'Corrective_V', 'Delta_AE',
+                                                   'Delta_Fullpath', 'Delta_MT',
+                                                   'Delta_OffAxis',
+                                                   'Delta_OnAxis', 'Delta_PV',
+                                                   'Delta_RT', 'FullPath_HR',
+                                                   'FullPath_V', 'MT_HR',
+                                                   'MT_V', 'PeakV_HR',
+                                                   'PeakV_V', 'RT_HR', 'RT_V',
+                                                   'TMT_HR', 'TMT_V', 'VE_HR', ...])])),
+                ('selector', None),
+                ('model',
+                 LogisticRegression(class_weight='balanced',
+                                    l1_ratio=0.023731188293710237,
+                                    max_iter=1000, penalty='elasticnet',
+                                    random_state=42, solver='saga'))])</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>{'selector': None, 'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
+                  transformers=[('StandardScaler', StandardScaler(),
+                                 ['AE_HR', 'AE_V', 'AbsOffAxis_HR',
+                                  'AbsOffAxis_V', 'AbsOnAxis_HR', 'AbsOnAxis_V',
+                                  'BallPath_HR', 'BallPath_V', 'CMT_HR',
+                                  'CMT_V', 'Corrective_HR', 'Corrective_V',
+                                  'Delta_AE', 'Delta_Fullpath', 'Delta_MT',
+                                  'Delta_OffAxis', 'Delta_OnAxis', 'Delta_PV',
+                                  'Delta_RT', 'FullPath_HR', 'FullPath_V',
+                                  'MT_HR', 'MT_V', 'PeakV_HR', 'PeakV_V',
+                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__l1_ratio': 0.023731188293710237, 'model__penalty': 'elasticnet', 'model__solver': 'saga'}</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.5543585453896399</v>
+        <v>0.548528176628863</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -850,10 +849,10 @@
         <v>89</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7007709474538447</v>
+        <v>0.6887664964018915</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5440579710144928</v>
+        <v>0.6269841269841269</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -862,7 +861,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>[0 0 1 1 1 0 0 0 1 0 1 1 0 1 1 0 0 0 0 1 0 1 0 1]</t>
+          <t>[0 0 1 1 1 0 0 0 1 1 1 1 0 1 1 0 0 0 0 1 0 1 1 1]</t>
         </is>
       </c>
     </row>

--- a/results/ElasticNet_tpesearch-estimator_df.xlsx
+++ b/results/ElasticNet_tpesearch-estimator_df.xlsx
@@ -506,17 +506,18 @@
                                                    'MT_V', 'PeakV_HR',
                                                    'PeakV_V', 'RT_HR', 'RT_V',
                                                    'TMT_HR', 'TMT_V', 'VE_HR', ...])])),
-                ('selector', None),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7f5ae82faa60&gt;),
                 ('model',
                  LogisticRegression(class_weight='balanced',
-                                    l1_ratio=0.7830765826716157, max_iter=1000,
+                                    l1_ratio=0.7271764772938435, max_iter=1000,
                                     penalty='elasticnet', random_state=42,
                                     solver='saga'))])</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'selector': None, 'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f5bc9a02b80&gt;, 'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
                   transformers=[('StandardScaler', StandardScaler(),
                                  ['AE_HR', 'AE_V', 'AbsOffAxis_HR',
                                   'AbsOffAxis_V', 'AbsOnAxis_HR', 'AbsOnAxis_V',
@@ -526,11 +527,11 @@
                                   'Delta_OffAxis', 'Delta_OnAxis', 'Delta_PV',
                                   'Delta_RT', 'FullPath_HR', 'FullPath_V',
                                   'MT_HR', 'MT_V', 'PeakV_HR', 'PeakV_V',
-                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__l1_ratio': 0.7830765826716157, 'model__penalty': 'elasticnet', 'model__solver': 'saga'}</t>
+                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__l1_ratio': 0.7271764772938435, 'model__penalty': 'elasticnet', 'model__solver': 'saga'}</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.570452602093469</v>
+        <v>0.6060729224560157</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -538,22 +539,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7333838957458397</v>
+        <v>0.6315792128144605</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5440917107583775</v>
+        <v>0.4928571428571429</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>[1 0 1 0 0 1 1 1 1 1 1 1 1 0 1 0 0 0 1 0 1 1 0 0]</t>
+          <t>[1 1 1 0 1 0 1 0 1 0 1 1 1 0 0 0 0 1 0 0 0 0 1 0]</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>[0 1 1 1 0 0 1 0 0 1 1 1 1 1 1 0 1 0 0 0 1 0 0 1]</t>
+          <t>[0 0 0 1 0 0 1 1 0 0 0 1 1 0 1 0 0 1 0 1 1 0 0 0]</t>
         </is>
       </c>
     </row>
@@ -583,17 +584,18 @@
                                                    'MT_V', 'PeakV_HR',
                                                    'PeakV_V', 'RT_HR', 'RT_V',
                                                    'TMT_HR', 'TMT_V', 'VE_HR', ...])])),
-                ('selector', None),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7f5b612b3460&gt;),
                 ('model',
                  LogisticRegression(class_weight='balanced',
-                                    l1_ratio=0.8546943368620347, max_iter=1000,
+                                    l1_ratio=0.08947744168666848, max_iter=1000,
                                     penalty='elasticnet', random_state=42,
                                     solver='saga'))])</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'selector': None, 'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f5b63ba6af0&gt;, 'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
                   transformers=[('StandardScaler', StandardScaler(),
                                  ['AE_HR', 'AE_V', 'AbsOffAxis_HR',
                                   'AbsOffAxis_V', 'AbsOnAxis_HR', 'AbsOnAxis_V',
@@ -603,11 +605,11 @@
                                   'Delta_OffAxis', 'Delta_OnAxis', 'Delta_PV',
                                   'Delta_RT', 'FullPath_HR', 'FullPath_V',
                                   'MT_HR', 'MT_V', 'PeakV_HR', 'PeakV_V',
-                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__l1_ratio': 0.8546943368620347, 'model__penalty': 'elasticnet', 'model__solver': 'saga'}</t>
+                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__l1_ratio': 0.08947744168666848, 'model__penalty': 'elasticnet', 'model__solver': 'saga'}</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.5492912212000919</v>
+        <v>0.5542479717079261</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -618,19 +620,19 @@
         <v>69</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7439326998729044</v>
+        <v>0.6214548139315798</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5440917107583775</v>
+        <v>0.4928571428571429</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>[0 1 1 0 1 0 0 0 1 1 1 0 1 0 1 0 1 0 1 1 0 1 1 1]</t>
+          <t>[0 1 1 0 1 0 0 0 1 1 1 0 0 0 1 0 1 0 1 1 0 0 1 0]</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>[1 1 1 1 0 1 0 0 1 0 0 1 1 1 0 0 1 0 1 0 0 0 1 1]</t>
+          <t>[0 1 0 1 0 0 0 0 0 1 1 1 0 0 0 1 0 0 1 0 0 1 0 1]</t>
         </is>
       </c>
     </row>
@@ -660,17 +662,18 @@
                                                    'MT_V', 'PeakV_HR',
                                                    'PeakV_V', 'RT_HR', 'RT_V',
                                                    'TMT_HR', 'TMT_V', 'VE_HR', ...])])),
-                ('selector', None),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7f5b61a0e190&gt;),
                 ('model',
                  LogisticRegression(class_weight='balanced',
-                                    l1_ratio=0.2732617604953749, max_iter=1000,
+                                    l1_ratio=0.8326998481569188, max_iter=1000,
                                     penalty='elasticnet', random_state=42,
                                     solver='saga'))])</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'selector': None, 'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f5b617c68b0&gt;, 'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
                   transformers=[('StandardScaler', StandardScaler(),
                                  ['AE_HR', 'AE_V', 'AbsOffAxis_HR',
                                   'AbsOffAxis_V', 'AbsOnAxis_HR', 'AbsOnAxis_V',
@@ -680,11 +683,11 @@
                                   'Delta_OffAxis', 'Delta_OnAxis', 'Delta_PV',
                                   'Delta_RT', 'FullPath_HR', 'FullPath_V',
                                   'MT_HR', 'MT_V', 'PeakV_HR', 'PeakV_V',
-                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__l1_ratio': 0.2732617604953749, 'model__penalty': 'elasticnet', 'model__solver': 'saga'}</t>
+                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__l1_ratio': 0.8326998481569188, 'model__penalty': 'elasticnet', 'model__solver': 'saga'}</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.4826469469642844</v>
+        <v>0.631574405089683</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -695,19 +698,19 @@
         <v>23</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6903718875045041</v>
+        <v>0.6544682389084666</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.4999999999999998</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>[0 0 1 0 0 1 0 1 1 1 1 1 1 1 1 0 0 0 1 0 1 1 1 0]</t>
+          <t>[0 1 1 0 0 1 0 0 0 1 0 1 0 1 0 1 0 0 1 0 0 1 1 1]</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>[0 0 1 0 1 1 1 1 1 1 1 0 1 1 1 1 0 1 0 0 1 0 0 0]</t>
+          <t>[0 0 0 1 1 1 0 1 0 0 1 1 0 1 1 1 0 0 0 1 1 1 0 1]</t>
         </is>
       </c>
     </row>
@@ -737,17 +740,18 @@
                                                    'MT_V', 'PeakV_HR',
                                                    'PeakV_V', 'RT_HR', 'RT_V',
                                                    'TMT_HR', 'TMT_V', 'VE_HR', ...])])),
-                ('selector', None),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7f5b63d72a60&gt;),
                 ('model',
                  LogisticRegression(class_weight='balanced',
-                                    l1_ratio=0.4816613170749568, max_iter=1000,
-                                    penalty='elasticnet', random_state=42,
-                                    solver='saga'))])</t>
+                                    l1_ratio=0.006757992437571119,
+                                    max_iter=1000, penalty='elasticnet',
+                                    random_state=42, solver='saga'))])</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{'selector': None, 'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f5b61327280&gt;, 'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
                   transformers=[('StandardScaler', StandardScaler(),
                                  ['AE_HR', 'AE_V', 'AbsOffAxis_HR',
                                   'AbsOffAxis_V', 'AbsOnAxis_HR', 'AbsOnAxis_V',
@@ -757,11 +761,11 @@
                                   'Delta_OffAxis', 'Delta_OnAxis', 'Delta_PV',
                                   'Delta_RT', 'FullPath_HR', 'FullPath_V',
                                   'MT_HR', 'MT_V', 'PeakV_HR', 'PeakV_V',
-                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__l1_ratio': 0.4816613170749568, 'model__penalty': 'elasticnet', 'model__solver': 'saga'}</t>
+                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__l1_ratio': 0.006757992437571119, 'model__penalty': 'elasticnet', 'model__solver': 'saga'}</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.5457854354556468</v>
+        <v>0.5710180170706487</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -769,22 +773,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6793974437005478</v>
+        <v>0.6233937446395733</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4611594202898551</v>
+        <v>0.529189352692075</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>[0 0 1 1 0 1 1 1 1 0 1 1 0 1 1 0 0 1 0 1 1 0 0 1]</t>
+          <t>[1 0 1 0 0 0 1 1 1 1 1 1 1 0 0 0 0 0 0 0 1 1 0 0]</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>[0 0 1 0 1 0 1 1 0 1 0 1 1 0 1 0 0 0 1 0 1 1 0 0]</t>
+          <t>[0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 1 1 1 0 0 0 1 0 1]</t>
         </is>
       </c>
     </row>
@@ -814,17 +818,18 @@
                                                    'MT_V', 'PeakV_HR',
                                                    'PeakV_V', 'RT_HR', 'RT_V',
                                                    'TMT_HR', 'TMT_V', 'VE_HR', ...])])),
-                ('selector', None),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7f5b63b39700&gt;),
                 ('model',
                  LogisticRegression(class_weight='balanced',
-                                    l1_ratio=0.023731188293710237,
-                                    max_iter=1000, penalty='elasticnet',
-                                    random_state=42, solver='saga'))])</t>
+                                    l1_ratio=0.04912925395458216, max_iter=1000,
+                                    penalty='elasticnet', random_state=42,
+                                    solver='saga'))])</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>{'selector': None, 'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f5b61299af0&gt;, 'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
                   transformers=[('StandardScaler', StandardScaler(),
                                  ['AE_HR', 'AE_V', 'AbsOffAxis_HR',
                                   'AbsOffAxis_V', 'AbsOnAxis_HR', 'AbsOnAxis_V',
@@ -834,11 +839,11 @@
                                   'Delta_OffAxis', 'Delta_OnAxis', 'Delta_PV',
                                   'Delta_RT', 'FullPath_HR', 'FullPath_V',
                                   'MT_HR', 'MT_V', 'PeakV_HR', 'PeakV_V',
-                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__l1_ratio': 0.023731188293710237, 'model__penalty': 'elasticnet', 'model__solver': 'saga'}</t>
+                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__l1_ratio': 0.04912925395458216, 'model__penalty': 'elasticnet', 'model__solver': 'saga'}</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.548528176628863</v>
+        <v>0.5136194371653384</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -849,19 +854,19 @@
         <v>89</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6887664964018915</v>
+        <v>0.651694055589369</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6269841269841269</v>
+        <v>0.542463768115942</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>[1 0 1 0 1 1 0 0 1 1 0 1 0 1 1 1 1 1 0 1 0 0 1 0]</t>
+          <t>[1 0 1 0 1 1 0 0 0 1 0 1 0 1 1 1 0 1 0 1 0 0 0 0]</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>[0 0 1 1 1 0 0 0 1 1 1 1 0 1 1 0 0 0 0 1 0 1 1 1]</t>
+          <t>[0 0 1 0 1 0 0 1 1 0 0 1 0 0 0 1 0 1 1 1 1 0 1 1]</t>
         </is>
       </c>
     </row>
